--- a/directed_trips_regions_bimonthly_19_17.xlsx
+++ b/directed_trips_regions_bimonthly_19_17.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.carr-harris\Desktop\Git\Rec.-deman-modelling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="38">
   <si>
     <t>_merge</t>
   </si>
@@ -132,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -155,27 +161,310 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB125"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -261,7 +550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -347,7 +636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -519,7 +808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -605,7 +894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -691,7 +980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -777,7 +1066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -863,7 +1152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -949,7 +1238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1035,7 +1324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1121,7 +1410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1293,7 +1582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1379,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1551,7 +1840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1637,7 +1926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +2012,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +2098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1895,7 +2184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +2270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2067,7 +2356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2153,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2239,7 +2528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2325,7 +2614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2411,7 +2700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2497,7 +2786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2583,7 +2872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +2958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2755,7 +3044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +3130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2927,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -3013,7 +3302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3099,7 +3388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3185,7 +3474,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3271,7 +3560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3357,7 +3646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3443,7 +3732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3529,7 +3818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3615,7 +3904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3701,7 +3990,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3787,7 +4076,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3873,7 +4162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3959,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -4045,7 +4334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -4131,7 +4420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +4506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -4303,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -4389,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -4475,7 +4764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4561,7 +4850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4647,7 +4936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +5022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +5108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4905,33 +5194,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
         <v>1</v>
       </c>
       <c r="B56" s="1">
-        <v>6.6700348854064941</v>
+        <v>1068.514404296875</v>
       </c>
       <c r="C56" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
       </c>
       <c r="F56" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
       </c>
       <c r="H56" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="J56" s="1">
         <v>0</v>
@@ -4943,16 +5232,16 @@
         <v>1</v>
       </c>
       <c r="M56" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="P56" s="1">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="Q56" s="1">
         <v>4</v>
@@ -4964,10 +5253,10 @@
         <v>100</v>
       </c>
       <c r="T56" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U56" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="V56" s="1">
         <v>0</v>
@@ -4979,27 +5268,27 @@
         <v>1</v>
       </c>
       <c r="Y56" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AB56" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
         <v>1</v>
       </c>
       <c r="B57" s="1">
-        <v>1068.514404296875</v>
+        <v>405.9166259765625</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -5077,15 +5366,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
         <v>1</v>
       </c>
       <c r="B58" s="1">
-        <v>405.9166259765625</v>
+        <v>5616.04638671875</v>
       </c>
       <c r="C58" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -5100,10 +5389,10 @@
         <v>100</v>
       </c>
       <c r="H58" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I58" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J58" s="1">
         <v>0</v>
@@ -5136,10 +5425,10 @@
         <v>100</v>
       </c>
       <c r="T58" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U58" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="V58" s="1">
         <v>0</v>
@@ -5163,15 +5452,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>1</v>
       </c>
       <c r="B59" s="1">
-        <v>5616.04638671875</v>
+        <v>3150.054443359375</v>
       </c>
       <c r="C59" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -5249,15 +5538,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
         <v>1</v>
       </c>
       <c r="B60" s="1">
-        <v>3150.054443359375</v>
+        <v>1817.36181640625</v>
       </c>
       <c r="C60" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -5335,15 +5624,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="1">
-        <v>1817.36181640625</v>
+        <v>6395.794921875</v>
       </c>
       <c r="C61" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -5421,15 +5710,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>1</v>
       </c>
       <c r="B62" s="1">
-        <v>6395.794921875</v>
+        <v>4006.27294921875</v>
       </c>
       <c r="C62" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -5507,15 +5796,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="1">
-        <v>4006.27294921875</v>
+        <v>1686.953857421875</v>
       </c>
       <c r="C63" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -5593,15 +5882,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="1">
-        <v>1686.953857421875</v>
+        <v>589.26971435546875</v>
       </c>
       <c r="C64" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -5679,15 +5968,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="1">
-        <v>589.26971435546875</v>
+        <v>1710.2791748046875</v>
       </c>
       <c r="C65" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -5729,10 +6018,10 @@
         <v>27</v>
       </c>
       <c r="Q65" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
-        <v>16.5</v>
+        <v>100</v>
       </c>
       <c r="S65" s="1">
         <v>100</v>
@@ -5765,15 +6054,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="1">
-        <v>1710.2791748046875</v>
+        <v>199.18280029296875</v>
       </c>
       <c r="C66" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -5851,101 +6140,101 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="1">
-        <v>199.18280029296875</v>
+        <v>2462.5498046875</v>
       </c>
       <c r="C67" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>100</v>
+      </c>
+      <c r="G67" s="1">
+        <v>100</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>100</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>100</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1">
+        <v>13</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>100</v>
+      </c>
+      <c r="P67" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1">
+        <v>100</v>
+      </c>
+      <c r="S67" s="1">
+        <v>100</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>100</v>
+      </c>
+      <c r="V67" s="1">
+        <v>50</v>
+      </c>
+      <c r="W67" s="1">
         <v>9</v>
       </c>
-      <c r="E67" s="1">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1">
-        <v>15</v>
-      </c>
-      <c r="G67" s="1">
-        <v>100</v>
-      </c>
-      <c r="H67" s="1">
-        <v>15</v>
-      </c>
-      <c r="I67" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="J67" s="1">
-        <v>0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>100</v>
-      </c>
-      <c r="L67" s="1">
-        <v>1</v>
-      </c>
-      <c r="M67" s="1">
-        <v>12</v>
-      </c>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="O67" s="1">
-        <v>18</v>
-      </c>
-      <c r="P67" s="1">
-        <v>27</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>0</v>
-      </c>
-      <c r="R67" s="1">
-        <v>100</v>
-      </c>
-      <c r="S67" s="1">
-        <v>100</v>
-      </c>
-      <c r="T67" s="1">
-        <v>15</v>
-      </c>
-      <c r="U67" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="1">
-        <v>100</v>
-      </c>
       <c r="X67" s="1">
         <v>1</v>
       </c>
       <c r="Y67" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AB67" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="1">
-        <v>2462.5498046875</v>
+        <v>3703.955810546875</v>
       </c>
       <c r="C68" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -6023,33 +6312,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="1">
-        <v>3703.955810546875</v>
+        <v>169753.6875</v>
       </c>
       <c r="C69" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G69" s="1">
         <v>100</v>
       </c>
       <c r="H69" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J69" s="1">
         <v>0</v>
@@ -6073,19 +6362,19 @@
         <v>100</v>
       </c>
       <c r="Q69" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R69" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="S69" s="1">
         <v>100</v>
       </c>
       <c r="T69" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U69" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="V69" s="1">
         <v>50</v>
@@ -6109,15 +6398,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="1">
-        <v>169753.6875</v>
+        <v>301001.03125</v>
       </c>
       <c r="C70" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -6195,15 +6484,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="1">
-        <v>301001.03125</v>
+        <v>485903.5</v>
       </c>
       <c r="C71" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -6218,10 +6507,10 @@
         <v>100</v>
       </c>
       <c r="H71" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
@@ -6281,15 +6570,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="1">
-        <v>485903.5</v>
+        <v>757270.8125</v>
       </c>
       <c r="C72" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -6304,16 +6593,16 @@
         <v>100</v>
       </c>
       <c r="H72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K72" s="1">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
@@ -6340,7 +6629,7 @@
         <v>100</v>
       </c>
       <c r="T72" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="U72" s="1">
         <v>12.5</v>
@@ -6367,15 +6656,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>757270.8125</v>
+        <v>651328.5625</v>
       </c>
       <c r="C73" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -6453,15 +6742,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="1">
-        <v>651328.5625</v>
+        <v>889111.5</v>
       </c>
       <c r="C74" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -6539,15 +6828,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>889111.5</v>
+        <v>465365.375</v>
       </c>
       <c r="C75" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -6625,15 +6914,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="1">
-        <v>465365.375</v>
+        <v>340624.21875</v>
       </c>
       <c r="C76" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -6648,10 +6937,10 @@
         <v>100</v>
       </c>
       <c r="H76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="J76" s="1">
         <v>50</v>
@@ -6684,10 +6973,10 @@
         <v>100</v>
       </c>
       <c r="T76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="V76" s="1">
         <v>50</v>
@@ -6711,15 +7000,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="1">
-        <v>340624.21875</v>
+        <v>469691.4375</v>
       </c>
       <c r="C77" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -6797,24 +7086,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="1">
-        <v>469691.4375</v>
+        <v>20457.013671875</v>
       </c>
       <c r="C78" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F78" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G78" s="1">
         <v>100</v>
@@ -6847,19 +7136,19 @@
         <v>100</v>
       </c>
       <c r="Q78" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R78" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="S78" s="1">
         <v>100</v>
       </c>
       <c r="T78" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U78" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="V78" s="1">
         <v>50</v>
@@ -6883,15 +7172,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="1">
-        <v>20457.013671875</v>
+        <v>20630.55859375</v>
       </c>
       <c r="C79" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -6906,10 +7195,10 @@
         <v>100</v>
       </c>
       <c r="H79" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I79" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J79" s="1">
         <v>50</v>
@@ -6969,15 +7258,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="1">
-        <v>20630.55859375</v>
+        <v>1767.837646484375</v>
       </c>
       <c r="C80" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -7028,10 +7317,10 @@
         <v>100</v>
       </c>
       <c r="T80" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="U80" s="1">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V80" s="1">
         <v>50</v>
@@ -7055,15 +7344,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="1">
-        <v>1767.837646484375</v>
+        <v>123.43588256835938</v>
       </c>
       <c r="C81" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -7141,18 +7430,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="1">
-        <v>123.43588256835938</v>
+        <v>11108.4375</v>
       </c>
       <c r="C82" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -7164,22 +7453,22 @@
         <v>100</v>
       </c>
       <c r="H82" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="J82" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="L82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M82" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="N82" s="1">
         <v>0</v>
@@ -7200,22 +7489,22 @@
         <v>100</v>
       </c>
       <c r="T82" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U82" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="V82" s="1">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="W82" s="1">
         <v>9</v>
       </c>
       <c r="X82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82" s="1">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="Z82" s="1">
         <v>0</v>
@@ -7227,15 +7516,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
         <v>1</v>
       </c>
       <c r="B83" s="1">
-        <v>11108.4375</v>
+        <v>1091.0557861328125</v>
       </c>
       <c r="C83" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
@@ -7313,15 +7602,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
         <v>1</v>
       </c>
       <c r="B84" s="1">
-        <v>1091.0557861328125</v>
+        <v>153571.796875</v>
       </c>
       <c r="C84" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
@@ -7399,15 +7688,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="1">
-        <v>153571.796875</v>
+        <v>152869.40625</v>
       </c>
       <c r="C85" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
@@ -7428,10 +7717,10 @@
         <v>100</v>
       </c>
       <c r="J85" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K85" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L85" s="1">
         <v>0</v>
@@ -7449,10 +7738,10 @@
         <v>100</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R85" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="S85" s="1">
         <v>100</v>
@@ -7485,24 +7774,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="1">
-        <v>152869.40625</v>
+        <v>339433.46875</v>
       </c>
       <c r="C86" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G86" s="1">
         <v>100</v>
@@ -7571,15 +7860,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="1">
-        <v>339433.46875</v>
+        <v>245459.03125</v>
       </c>
       <c r="C87" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
@@ -7657,15 +7946,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="1">
-        <v>245459.03125</v>
+        <v>367627.03125</v>
       </c>
       <c r="C88" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
@@ -7716,10 +8005,10 @@
         <v>100</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U88" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="V88" s="1">
         <v>30</v>
@@ -7743,15 +8032,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>367627.03125</v>
+        <v>470397.15625</v>
       </c>
       <c r="C89" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
@@ -7766,10 +8055,10 @@
         <v>100</v>
       </c>
       <c r="H89" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I89" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J89" s="1">
         <v>30</v>
@@ -7829,15 +8118,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
         <v>1</v>
       </c>
       <c r="B90" s="1">
-        <v>470397.15625</v>
+        <v>307103.3125</v>
       </c>
       <c r="C90" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
         <v>11</v>
@@ -7915,15 +8204,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="1">
-        <v>307103.3125</v>
+        <v>327915.21875</v>
       </c>
       <c r="C91" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -8001,15 +8290,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="1">
-        <v>327915.21875</v>
+        <v>659114.375</v>
       </c>
       <c r="C92" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
@@ -8087,15 +8376,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="1">
-        <v>659114.375</v>
+        <v>195931.390625</v>
       </c>
       <c r="C93" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
@@ -8110,7 +8399,7 @@
         <v>100</v>
       </c>
       <c r="H93" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I93" s="1">
         <v>15</v>
@@ -8146,7 +8435,7 @@
         <v>100</v>
       </c>
       <c r="T93" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U93" s="1">
         <v>15</v>
@@ -8173,15 +8462,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="1">
-        <v>195931.390625</v>
+        <v>174399.6875</v>
       </c>
       <c r="C94" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
@@ -8259,24 +8548,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="1">
-        <v>174399.6875</v>
+        <v>60248.3828125</v>
       </c>
       <c r="C95" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="G95" s="1">
         <v>100</v>
@@ -8309,10 +8598,10 @@
         <v>100</v>
       </c>
       <c r="Q95" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="S95" s="1">
         <v>100</v>
@@ -8345,15 +8634,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="1">
-        <v>60248.3828125</v>
+        <v>8460.54296875</v>
       </c>
       <c r="C96" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
         <v>11</v>
@@ -8431,33 +8720,33 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="1">
-        <v>8460.54296875</v>
+        <v>1088.0289306640625</v>
       </c>
       <c r="C97" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="G97" s="1">
         <v>100</v>
       </c>
       <c r="H97" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I97" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J97" s="1">
         <v>30</v>
@@ -8481,19 +8770,19 @@
         <v>100</v>
       </c>
       <c r="Q97" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R97" s="1">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="S97" s="1">
         <v>100</v>
       </c>
       <c r="T97" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U97" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="V97" s="1">
         <v>30</v>
@@ -8517,15 +8806,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="1">
-        <v>1088.0289306640625</v>
+        <v>11831.8115234375</v>
       </c>
       <c r="C98" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
@@ -8540,10 +8829,10 @@
         <v>100</v>
       </c>
       <c r="H98" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I98" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J98" s="1">
         <v>30</v>
@@ -8603,15 +8892,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="1">
-        <v>11831.8115234375</v>
+        <v>79021.171875</v>
       </c>
       <c r="C99" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
@@ -8689,15 +8978,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="1">
-        <v>79021.171875</v>
+        <v>160974.65625</v>
       </c>
       <c r="C100" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
@@ -8748,10 +9037,10 @@
         <v>100</v>
       </c>
       <c r="T100" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U100" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="V100" s="1">
         <v>30</v>
@@ -8775,15 +9064,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
         <v>1</v>
       </c>
       <c r="B101" s="1">
-        <v>160974.65625</v>
+        <v>52808.5</v>
       </c>
       <c r="C101" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
@@ -8861,15 +9150,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
         <v>1</v>
       </c>
       <c r="B102" s="1">
-        <v>52808.5</v>
+        <v>48666.23828125</v>
       </c>
       <c r="C102" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
@@ -8947,15 +9236,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:28">
       <c r="A103" t="s">
         <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>48666.23828125</v>
+        <v>50920.578125</v>
       </c>
       <c r="C103" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
@@ -9033,15 +9322,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
         <v>1</v>
       </c>
       <c r="B104" s="1">
-        <v>50920.578125</v>
+        <v>20573.24609375</v>
       </c>
       <c r="C104" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
         <v>12</v>
@@ -9119,15 +9408,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
         <v>1</v>
       </c>
       <c r="B105" s="1">
-        <v>20573.24609375</v>
+        <v>26960.962890625</v>
       </c>
       <c r="C105" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
         <v>12</v>
@@ -9142,7 +9431,7 @@
         <v>100</v>
       </c>
       <c r="H105" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I105" s="1">
         <v>15</v>
@@ -9178,7 +9467,7 @@
         <v>100</v>
       </c>
       <c r="T105" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U105" s="1">
         <v>15</v>
@@ -9205,15 +9494,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
         <v>1</v>
       </c>
       <c r="B106" s="1">
-        <v>26960.962890625</v>
+        <v>3910.375732421875</v>
       </c>
       <c r="C106" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
         <v>12</v>
@@ -9291,15 +9580,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
         <v>1</v>
       </c>
       <c r="B107" s="1">
-        <v>3910.375732421875</v>
+        <v>106.04836273193359</v>
       </c>
       <c r="C107" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>12</v>
@@ -9314,10 +9603,10 @@
         <v>100</v>
       </c>
       <c r="H107" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="J107" s="1">
         <v>30</v>
@@ -9377,15 +9666,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
         <v>1</v>
       </c>
       <c r="B108" s="1">
-        <v>106.04836273193359</v>
+        <v>15661.029296875</v>
       </c>
       <c r="C108" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
         <v>12</v>
@@ -9400,10 +9689,10 @@
         <v>100</v>
       </c>
       <c r="H108" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I108" s="1">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J108" s="1">
         <v>30</v>
@@ -9463,101 +9752,101 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
         <v>1</v>
       </c>
       <c r="B109" s="1">
-        <v>15661.029296875</v>
+        <v>11375.9833984375</v>
       </c>
       <c r="C109" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" s="1">
+        <v>4</v>
+      </c>
+      <c r="F109" s="1">
+        <v>17</v>
+      </c>
+      <c r="G109" s="1">
+        <v>100</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>100</v>
+      </c>
+      <c r="J109" s="1">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>100</v>
+      </c>
+      <c r="L109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1">
         <v>12</v>
       </c>
-      <c r="E109" s="1">
-        <v>4</v>
-      </c>
-      <c r="F109" s="1">
-        <v>19</v>
-      </c>
-      <c r="G109" s="1">
-        <v>100</v>
-      </c>
-      <c r="H109" s="1">
-        <v>7</v>
-      </c>
-      <c r="I109" s="1">
-        <v>15</v>
-      </c>
-      <c r="J109" s="1">
-        <v>30</v>
-      </c>
-      <c r="K109" s="1">
-        <v>10</v>
-      </c>
-      <c r="L109" s="1">
-        <v>0</v>
-      </c>
-      <c r="M109" s="1">
-        <v>100</v>
-      </c>
       <c r="N109" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O109" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="P109" s="1">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="Q109" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R109" s="1">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="S109" s="1">
         <v>100</v>
       </c>
       <c r="T109" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U109" s="1">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="V109" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W109" s="1">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="X109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y109" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="Z109" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA109" s="1">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="AB109" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
         <v>1</v>
       </c>
       <c r="B110" s="1">
-        <v>11375.9833984375</v>
+        <v>93358.734375</v>
       </c>
       <c r="C110" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -9635,15 +9924,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
         <v>1</v>
       </c>
       <c r="B111" s="1">
-        <v>93358.734375</v>
+        <v>20817.486328125</v>
       </c>
       <c r="C111" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
@@ -9721,15 +10010,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
         <v>1</v>
       </c>
       <c r="B112" s="1">
-        <v>20817.486328125</v>
+        <v>43952.6015625</v>
       </c>
       <c r="C112" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
@@ -9744,10 +10033,10 @@
         <v>100</v>
       </c>
       <c r="H112" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I112" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J112" s="1">
         <v>0</v>
@@ -9780,10 +10069,10 @@
         <v>100</v>
       </c>
       <c r="T112" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U112" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="V112" s="1">
         <v>0</v>
@@ -9807,15 +10096,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="1">
-        <v>43952.6015625</v>
+        <v>103393.859375</v>
       </c>
       <c r="C113" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
@@ -9893,15 +10182,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
         <v>1</v>
       </c>
       <c r="B114" s="1">
-        <v>103393.859375</v>
+        <v>35337.296875</v>
       </c>
       <c r="C114" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
@@ -9979,15 +10268,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
         <v>1</v>
       </c>
       <c r="B115" s="1">
-        <v>35337.296875</v>
+        <v>122130.9921875</v>
       </c>
       <c r="C115" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -10065,15 +10354,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
         <v>1</v>
       </c>
       <c r="B116" s="1">
-        <v>122130.9921875</v>
+        <v>81323.6953125</v>
       </c>
       <c r="C116" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -10151,15 +10440,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
         <v>1</v>
       </c>
       <c r="B117" s="1">
-        <v>81323.6953125</v>
+        <v>77850.3828125</v>
       </c>
       <c r="C117" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -10237,15 +10526,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
         <v>1</v>
       </c>
       <c r="B118" s="1">
-        <v>77850.3828125</v>
+        <v>86203.21875</v>
       </c>
       <c r="C118" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -10323,15 +10612,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
         <v>1</v>
       </c>
       <c r="B119" s="1">
-        <v>86203.21875</v>
+        <v>60304.91796875</v>
       </c>
       <c r="C119" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -10409,15 +10698,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
         <v>1</v>
       </c>
       <c r="B120" s="1">
-        <v>60304.91796875</v>
+        <v>25283.314453125</v>
       </c>
       <c r="C120" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -10495,15 +10784,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
         <v>1</v>
       </c>
       <c r="B121" s="1">
-        <v>25283.314453125</v>
+        <v>4048.649658203125</v>
       </c>
       <c r="C121" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -10518,10 +10807,10 @@
         <v>100</v>
       </c>
       <c r="H121" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I121" s="1">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="J121" s="1">
         <v>0</v>
@@ -10581,15 +10870,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>1</v>
       </c>
       <c r="B122" s="1">
-        <v>4048.649658203125</v>
+        <v>8763.4775390625</v>
       </c>
       <c r="C122" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
@@ -10604,10 +10893,10 @@
         <v>100</v>
       </c>
       <c r="H122" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I122" s="1">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="J122" s="1">
         <v>0</v>
@@ -10667,15 +10956,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
         <v>1</v>
       </c>
       <c r="B123" s="1">
-        <v>8763.4775390625</v>
+        <v>9926.7568359375</v>
       </c>
       <c r="C123" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
@@ -10753,15 +11042,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
         <v>1</v>
       </c>
       <c r="B124" s="1">
-        <v>9926.7568359375</v>
+        <v>1552.373291015625</v>
       </c>
       <c r="C124" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -10839,92 +11128,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="1">
-        <v>1552.373291015625</v>
-      </c>
-      <c r="C125" s="1">
-        <v>22</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125" s="1">
-        <v>4</v>
-      </c>
-      <c r="F125" s="1">
-        <v>17</v>
-      </c>
-      <c r="G125" s="1">
-        <v>100</v>
-      </c>
-      <c r="H125" s="1">
-        <v>15</v>
-      </c>
-      <c r="I125" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="J125" s="1">
-        <v>0</v>
-      </c>
-      <c r="K125" s="1">
-        <v>100</v>
-      </c>
-      <c r="L125" s="1">
-        <v>1</v>
-      </c>
-      <c r="M125" s="1">
-        <v>12</v>
-      </c>
-      <c r="N125" s="1">
-        <v>3</v>
-      </c>
-      <c r="O125" s="1">
-        <v>18</v>
-      </c>
-      <c r="P125" s="1">
-        <v>26</v>
-      </c>
-      <c r="Q125" s="1">
-        <v>4</v>
-      </c>
-      <c r="R125" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="S125" s="1">
-        <v>100</v>
-      </c>
-      <c r="T125" s="1">
-        <v>15</v>
-      </c>
-      <c r="U125" s="1">
-        <v>12.5</v>
-      </c>
-      <c r="V125" s="1">
-        <v>0</v>
-      </c>
-      <c r="W125" s="1">
-        <v>100</v>
-      </c>
-      <c r="X125" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y125" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z125" s="1">
-        <v>3</v>
-      </c>
-      <c r="AA125" s="1">
-        <v>18</v>
-      </c>
-      <c r="AB125" s="1">
-        <v>26</v>
-      </c>
+    <row r="125" spans="1:28">
+      <c r="B125" s="2"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/directed_trips_regions_bimonthly_19_17.xlsx
+++ b/directed_trips_regions_bimonthly_19_17.xlsx
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6928,10 +6928,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F76" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G76" s="1">
         <v>100</v>
@@ -7014,10 +7014,10 @@
         <v>10</v>
       </c>
       <c r="E77" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F77" s="1">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="G77" s="1">
         <v>100</v>
